--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Plyo Products.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Plyo Products.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{EBD208D8-53F6-4FA3-A818-C96062E52462}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3A5CFEFB-0292-4A37-8D01-01462315006E}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{17521943-572A-47A9-B03D-09876D2261B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{85B10F4E-F3D9-4C13-865E-9C7467D36A79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F178FF25-F7DD-4840-ABFC-07BC8D84E4F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9A080BC-F7FE-4ACE-B778-5B0FC61BDDA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plyo Products" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,14 +31,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>Pro-Fit Marietta</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
+  <si>
+    <t>Pro Fit Marietta</t>
   </si>
   <si>
     <t>Retail Price</t>
   </si>
   <si>
+    <t>Total Retail Value</t>
+  </si>
+  <si>
+    <t>Percent of Total Retail Value</t>
+  </si>
+  <si>
     <t>Power Hurdle</t>
   </si>
   <si>
@@ -60,18 +66,15 @@
     <t>Total Retail Value for All Products</t>
   </si>
   <si>
-    <t>Total Retail Value</t>
-  </si>
-  <si>
-    <t>Percent of Total Retail Value</t>
-  </si>
-  <si>
     <t>Plyometric Products Inventory Valuation</t>
   </si>
   <si>
     <t>Quantity in Stock</t>
   </si>
   <si>
+    <t>As of September 30</t>
+  </si>
+  <si>
     <t>Warehouse Location</t>
   </si>
   <si>
@@ -79,19 +82,25 @@
   </si>
   <si>
     <t>Marietta</t>
-  </si>
-  <si>
-    <t>As of September 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -188,40 +203,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
-    <cellStyle name="Total" xfId="4" builtinId="25"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
+    <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,214 +564,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DD3E09-2CBF-4B39-AB52-1C4A76C8AEFD}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF291D1E-E780-456C-AB05-373C9C713C69}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
         <v>125</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>32.950000000000003</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f>C5*D5</f>
         <v>4118.75</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <f>E5/$E$11</f>
         <v>1.4061733699527339E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
         <v>995</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>59.95</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f>C6*D6</f>
         <v>59650.25</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F10" si="0">E6/$E$11</f>
         <v>0.20365060530749152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
         <v>450</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>251.59</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <f>C7*D7</f>
         <v>113215.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.38652654607801817</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
         <v>1105</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>49.95</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f>C8*D8</f>
         <v>55194.75</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.18843918084661282</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
         <v>255</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>158.05000000000001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <f>C9*D9</f>
         <v>40302.75</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.13759673149830057</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
         <v>215</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>94.99</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <f>C10*D10</f>
         <v>20422.849999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>6.9725202570049633E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
         <f>SUM(E5:E10)</f>
         <v>292904.84999999998</v>
       </c>
-      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -748,7 +774,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Plyo Products.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Plyo Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Creating a Worksheet and Charting Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{17521943-572A-47A9-B03D-09876D2261B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{85B10F4E-F3D9-4C13-865E-9C7467D36A79}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{17521943-572A-47A9-B03D-09876D2261B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3923442B-03A6-480A-BB68-074EF18F0DAC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9A080BC-F7FE-4ACE-B778-5B0FC61BDDA7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Pro Fit Marietta</t>
   </si>
@@ -90,8 +90,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -214,28 +214,19 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,6 +235,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -565,6 +565,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF291D1E-E780-456C-AB05-373C9C713C69}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -574,55 +577,55 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -630,20 +633,20 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>125</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>32.950000000000003</v>
       </c>
-      <c r="E5" s="6">
-        <f>C5*D5</f>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E10" si="0">C5*D5</f>
         <v>4118.75</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f>E5/$E$11</f>
         <v>1.4061733699527339E-2</v>
       </c>
@@ -652,21 +655,21 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>995</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>59.95</v>
       </c>
-      <c r="E6" s="6">
-        <f>C6*D6</f>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>59650.25</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:F10" si="0">E6/$E$11</f>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F10" si="1">E6/$E$11</f>
         <v>0.20365060530749152</v>
       </c>
     </row>
@@ -674,21 +677,21 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>450</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>251.59</v>
       </c>
-      <c r="E7" s="6">
-        <f>C7*D7</f>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>113215.5</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>0.38652654607801817</v>
       </c>
     </row>
@@ -696,21 +699,21 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>1105</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>49.95</v>
       </c>
-      <c r="E8" s="6">
-        <f>C8*D8</f>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>55194.75</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>0.18843918084661282</v>
       </c>
     </row>
@@ -718,21 +721,21 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>255</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>158.05000000000001</v>
       </c>
-      <c r="E9" s="6">
-        <f>C9*D9</f>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>40302.75</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>0.13759673149830057</v>
       </c>
     </row>
@@ -740,29 +743,29 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>215</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>94.99</v>
       </c>
-      <c r="E10" s="6">
-        <f>C10*D10</f>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>20422.849999999999</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
         <v>6.9725202570049633E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <f>SUM(E5:E10)</f>
         <v>292904.84999999998</v>
       </c>
@@ -774,6 +777,7 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Plyo Products.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Plyo Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Creating a Worksheet and Charting Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{17521943-572A-47A9-B03D-09876D2261B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3923442B-03A6-480A-BB68-074EF18F0DAC}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{6C5893FE-39FB-479E-AF4A-9E95F82445DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6333D751-6825-4600-BEF6-F461B3E7A83C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9A080BC-F7FE-4ACE-B778-5B0FC61BDDA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7632A6D0-85D8-40DF-BCE6-32C0E1C75766}"/>
   </bookViews>
   <sheets>
     <sheet name="Plyo Products" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
   <si>
     <t>Pro Fit Marietta</t>
   </si>
@@ -88,12 +88,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +116,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,8 +181,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,68 +197,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="2" builtinId="15"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,68 +549,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF291D1E-E780-456C-AB05-373C9C713C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B75BB-FB6C-45C2-8477-50EFE5FB0D1B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -633,20 +616,20 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>125</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>32.950000000000003</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E10" si="0">C5*D5</f>
+      <c r="E5" s="2">
+        <f>C5*D5</f>
         <v>4118.75</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <f>E5/$E$11</f>
         <v>1.4061733699527339E-2</v>
       </c>
@@ -655,21 +638,21 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>995</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>59.95</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
+      <c r="E6" s="2">
+        <f>C6*D6</f>
         <v>59650.25</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F10" si="1">E6/$E$11</f>
+      <c r="F6" s="6">
+        <f>E6/$E$11</f>
         <v>0.20365060530749152</v>
       </c>
     </row>
@@ -677,21 +660,21 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>450</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>251.59</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
+      <c r="E7" s="2">
+        <f>C7*D7</f>
         <v>113215.5</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
+      <c r="F7" s="6">
+        <f>E7/$E$11</f>
         <v>0.38652654607801817</v>
       </c>
     </row>
@@ -699,21 +682,21 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1105</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>49.95</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
+      <c r="E8" s="2">
+        <f>C8*D8</f>
         <v>55194.75</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
+      <c r="F8" s="6">
+        <f>E8/$E$11</f>
         <v>0.18843918084661282</v>
       </c>
     </row>
@@ -721,21 +704,21 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>255</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>158.05000000000001</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
+      <c r="E9" s="2">
+        <f>C9*D9</f>
         <v>40302.75</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
+      <c r="F9" s="6">
+        <f>E9/$E$11</f>
         <v>0.13759673149830057</v>
       </c>
     </row>
@@ -743,29 +726,29 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>215</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>94.99</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2">
+        <f>C10*D10</f>
         <v>20422.849999999999</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
+      <c r="F10" s="6">
+        <f>E10/$E$11</f>
         <v>6.9725202570049633E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <f>SUM(E5:E10)</f>
         <v>292904.84999999998</v>
       </c>
